--- a/input_cancer/Sample Manifest Form.xlsx
+++ b/input_cancer/Sample Manifest Form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plateau/Documents/GitHub/PanoramiR/input_cancer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuangao/Documents/GitHub/PanoramiR/input_cancer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A989723-D0EE-3D42-AF5A-30784FE30B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645A5446-8BE4-0844-ABD5-7B134234187E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{50983005-E3F6-4E4A-99C7-382709EF95A1}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>Please specify requested comparison groups as follows:</t>
   </si>
   <si>
-    <t>For comparison between "positive" and "negative" sample groups, identify "positive" samples as '1', "negative" samples as '-1'. For other samples not in comparison, indicate '0'.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Note: For standard analysis packages, you may request up to 3 comparisons per analysis. </t>
   </si>
   <si>
@@ -220,22 +217,25 @@
     <t>NonCancer</t>
   </si>
   <si>
-    <t>2008 001</t>
-  </si>
-  <si>
-    <t>2008 002</t>
-  </si>
-  <si>
-    <t>2008 003</t>
-  </si>
-  <si>
-    <t>2008 004</t>
-  </si>
-  <si>
-    <t>2008 005</t>
-  </si>
-  <si>
-    <t>2008 006</t>
+    <t>For comparison between "positive" and "negative" sample groups, identify "positive" samples as 'A', "negative" samples as 'B'. For other samples not in comparison, indicate '0'.</t>
+  </si>
+  <si>
+    <t>sample_001</t>
+  </si>
+  <si>
+    <t>sample_002</t>
+  </si>
+  <si>
+    <t>sample_003</t>
+  </si>
+  <si>
+    <t>sample_004</t>
+  </si>
+  <si>
+    <t>sample_005</t>
+  </si>
+  <si>
+    <t>sample_006</t>
   </si>
 </sst>
 </file>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D979ABB-8451-F34C-BC51-FD730C55347C}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -825,7 +825,7 @@
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -838,7 +838,7 @@
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -846,7 +846,7 @@
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
@@ -854,7 +854,7 @@
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -862,7 +862,7 @@
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -870,7 +870,7 @@
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -878,7 +878,7 @@
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -886,7 +886,7 @@
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
@@ -900,7 +900,7 @@
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
@@ -908,7 +908,7 @@
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
@@ -916,7 +916,7 @@
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
@@ -924,7 +924,7 @@
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="4"/>
@@ -932,7 +932,7 @@
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="4"/>
@@ -940,7 +940,7 @@
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="4"/>
@@ -953,7 +953,7 @@
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
@@ -961,7 +961,7 @@
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
@@ -969,7 +969,7 @@
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
@@ -977,7 +977,7 @@
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
@@ -985,7 +985,7 @@
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -998,7 +998,7 @@
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1017,31 +1017,31 @@
     </row>
     <row r="34" spans="1:9" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="D34" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="E34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="F34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="G34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="H34" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="I34" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1049,20 +1049,20 @@
         <v>1</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="21" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1070,20 +1070,20 @@
         <v>2</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F36" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1091,20 +1091,20 @@
         <v>3</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F37" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1112,20 +1112,20 @@
         <v>4</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1133,20 +1133,20 @@
         <v>5</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1154,20 +1154,20 @@
         <v>6</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="14" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
